--- a/biology/Zoologie/Elapsoidea_sundevallii/Elapsoidea_sundevallii.xlsx
+++ b/biology/Zoologie/Elapsoidea_sundevallii/Elapsoidea_sundevallii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elapsoidea sundevallii est une espèce de serpents de la famille des Elapidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elapsoidea sundevallii est une espèce de serpents de la famille des Elapidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Swaziland, en Namibie, au Botswana, au Zimbabwe et au Mozambique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Swaziland, en Namibie, au Botswana, au Zimbabwe et au Mozambique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Elapsoidea sundevallii decosteri Boulenger, 1888
 Elapsoidea sundevallii fitzsimonsi Loveridge, 1944
 Elapsoidea sundevallii longicauda Broadley, 1971
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Carl Jakob Sundevall (1801-1875)[3]. La sous-espèce Elapsoidea sundevallii decosteri est nommée en l'honneur de Juste De Coster[3]. La sous-espèce Elapsoidea sundevallii fitzsimonsi est nommée en l'honneur de Vivian Frederick Maynard FitzSimons[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Carl Jakob Sundevall (1801-1875). La sous-espèce Elapsoidea sundevallii decosteri est nommée en l'honneur de Juste De Coster. La sous-espèce Elapsoidea sundevallii fitzsimonsi est nommée en l'honneur de Vivian Frederick Maynard FitzSimons.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1888 : On new or little known South African reptiles. Annals and Magazine of Natural History, sér. 6, vol. 2, p. 136-141 (texte intégral).
 Broadley, 1971 : A revision of the African snake genus Elapsoidea BOCAGE (Elapidae). Occasional Papers of the National Museum of Southern Rhodesia, vol. 32, p. 577-626.
